--- a/Reports/Report1/UseCaseRegister.xlsx
+++ b/Reports/Report1/UseCaseRegister.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Number</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Open Issues</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
     <t>User creates a new account with his desired registering data for later usage</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>App is started</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t>In case of username already present on database an alternate username has to be entered</t>
   </si>
   <si>
-    <t>User has to enter E-Mail(E-Mail is used for Password reset, E-Mail is not verified)</t>
-  </si>
-  <si>
-    <t>User has to enter his desired password(no rules)</t>
-  </si>
-  <si>
     <t>User has to confirm the password</t>
   </si>
   <si>
@@ -138,6 +126,33 @@
   </si>
   <si>
     <t>Possibility to change account data (i.e. E-Mail) is needed?</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>User has to enter E-Mail</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>E-Mail is used for Password reset, E-Mail is not verified</t>
+  </si>
+  <si>
+    <t>User has to enter his desired password</t>
+  </si>
+  <si>
+    <t>No rules</t>
+  </si>
+  <si>
+    <t>8a</t>
   </si>
 </sst>
 </file>
@@ -212,17 +227,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -571,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -587,252 +610,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="2" t="s">
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="A7" s="2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="18">
-      <c r="A8" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="2" t="s">
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="A10" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="25" spans="1:3" ht="18">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3">
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2">
         <v>12</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3">
-        <v>11</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +889,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
